--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17402.97378276995</v>
+        <v>-19290.55529917209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>103.3802010363948</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>107.5648922361045</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.9734750049406</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.75446130335952</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>27.77238941128281</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>252.402482979977</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>170.7926293335067</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>45.38604513785574</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>338.0471616706942</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0.1060804925962401</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>99.31129271000222</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>177.7034426439807</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>66.1408521553538</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.92423056204113</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>34.84404103584477</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051971</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>118.7547293727785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>194.8026695426854</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>88.569562598777</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>224.0445501002042</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>26.99319854866556</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>24.29718497126791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>188.4590648403934</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>49.12199829633348</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180123</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437437</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897925</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571512</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523593</v>
+        <v>54.76109577523558</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>176.8129953872566</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.60821201062535</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857078</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.1194880117298</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>962.1194880117298</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>962.1194880117298</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>576.3312354134855</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.46899524962</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2279.707209887712</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1948.644322544141</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075852</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>432.0491721307175</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>432.0491721307175</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>432.0491721307175</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>432.0491721307175</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373639</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>846.9187564332271</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>488.6530578264766</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>102.8648052282324</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>95.91930447902892</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>81.99590041761982</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>81.99590041761982</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.481113437761</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700475</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718032</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>426.9821918225998</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>581.2185435662824</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1319.417843644791</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1030.00067360783</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.107328986838</v>
+        <v>802.0111227098125</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>581.2185435662824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5261,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.328596068372</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>986.002216560967</v>
+        <v>1263.800259427147</v>
       </c>
       <c r="V16" t="n">
-        <v>986.002216560967</v>
+        <v>1263.800259427147</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240064</v>
+        <v>974.3830893901859</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259892</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.5954956259893</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,19 +5525,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5580,28 +5580,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426789</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1267.886895026012</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>1013.202406820125</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181189</v>
+        <v>723.7852367831647</v>
       </c>
       <c r="X19" t="n">
-        <v>245.1301850426789</v>
+        <v>723.7852367831647</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426789</v>
+        <v>723.7852367831647</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,22 +5753,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>804.0652204802077</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>635.1290375523008</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>485.0123981399651</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0993045575718</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0993045575718</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5923,37 +5923,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231705</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>494.1428252862099</v>
+        <v>985.7136853104474</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>985.7136853104474</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>985.7136853104474</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765185</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706317</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582217</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726217</v>
+        <v>564.1830073829217</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726217</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013487</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075997</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>475.323281770639</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726217</v>
+        <v>966.6240513566916</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726217</v>
+        <v>745.8314722131614</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.343727644025</v>
+        <v>638.4603630227156</v>
       </c>
       <c r="C31" t="n">
-        <v>543.343727644025</v>
+        <v>525.2850453761796</v>
       </c>
       <c r="D31" t="n">
-        <v>543.343727644025</v>
+        <v>430.9292712452147</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430025</v>
+        <v>338.7770429441925</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1712.787274970149</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1534.188289730496</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.33673373748</v>
+        <v>1335.26466680598</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818901</v>
+        <v>1101.60836205039</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652429</v>
+        <v>929.3796764337436</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.2313271928941</v>
+        <v>764.3479625715844</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.508393158044</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,31 +7549,31 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.9087390531959</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.016928588741352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>43.84411841440851</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.5688032336834</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.9077496198961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.3933113627326</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>167.4826230257989</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>30.90698584635172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>77.92400586460059</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>28.09309322362384</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>152.8387816332717</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2258133653231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>33.0884962179959</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965548</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>54.22110038276352</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.7731847129126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163965</v>
       </c>
       <c r="G2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="H2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="I2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416894</v>
+        <v>284775.4961416893</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="M2" t="n">
         <v>287364.619452499</v>
       </c>
-      <c r="M2" t="n">
-        <v>287364.6194524992</v>
-      </c>
       <c r="N2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.90680086676</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214392</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143918</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563559</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26470,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542237.2960766769</v>
+        <v>-542237.2960766772</v>
       </c>
       <c r="C6" t="n">
-        <v>47730.58313786732</v>
+        <v>47730.58313786719</v>
       </c>
       <c r="D6" t="n">
-        <v>47730.58313786739</v>
+        <v>47730.58313786719</v>
       </c>
       <c r="E6" t="n">
-        <v>-358472.6902306554</v>
+        <v>-358570.1493566277</v>
       </c>
       <c r="F6" t="n">
-        <v>166687.3462462406</v>
+        <v>166589.8871202685</v>
       </c>
       <c r="G6" t="n">
-        <v>166687.3462462405</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="H6" t="n">
-        <v>166687.3462462406</v>
+        <v>166589.8871202685</v>
       </c>
       <c r="I6" t="n">
-        <v>166687.3462462407</v>
+        <v>166589.8871202684</v>
       </c>
       <c r="J6" t="n">
-        <v>-9735.872946352451</v>
+        <v>-9833.332072324527</v>
       </c>
       <c r="K6" t="n">
-        <v>110774.3901729855</v>
+        <v>110755.8964350507</v>
       </c>
       <c r="L6" t="n">
-        <v>141842.149968847</v>
+        <v>141842.1499688475</v>
       </c>
       <c r="M6" t="n">
-        <v>17384.0415358771</v>
+        <v>17384.04153587691</v>
       </c>
       <c r="N6" t="n">
-        <v>152185.0567697139</v>
+        <v>152185.0567697142</v>
       </c>
       <c r="O6" t="n">
-        <v>152185.0567697139</v>
+        <v>152185.0567697142</v>
       </c>
       <c r="P6" t="n">
         <v>108022.4514668687</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>303.4958447053166</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>108.8834281215533</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>144.0616304531437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7685370332315</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>124.1589268335784</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>117.3286176984921</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>9.039350848430644</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>89.80115265030454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>368.3981248829393</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>48.19077698535938</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2037217664547</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>186.9705815319755</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.266523520590673e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>374.2497035813873</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412239</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043162</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.92177183827</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
